--- a/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
@@ -582,18 +582,18 @@
   <dimension ref="A1:S196"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.6640625" customWidth="1"/>
+    <col min="1" max="1" width="79.7109375" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>18</v>
       </c>
@@ -601,10 +601,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -612,7 +612,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -628,7 +628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -636,7 +636,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -644,7 +644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -652,7 +652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -660,12 +660,12 @@
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -691,7 +691,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>53</v>
       </c>
@@ -714,7 +714,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
@@ -737,7 +737,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>54</v>
       </c>
@@ -761,7 +761,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -785,7 +785,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>41</v>
       </c>
@@ -809,7 +809,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>44</v>
       </c>
@@ -832,7 +832,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -853,7 +853,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -874,7 +874,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -895,7 +895,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>52</v>
       </c>
@@ -916,7 +916,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
@@ -924,7 +924,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -932,7 +932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -940,7 +940,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -948,7 +948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -956,7 +956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -964,7 +964,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -972,7 +972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -980,12 +980,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -1023,7 +1023,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>32</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>21</v>
       </c>
@@ -1086,7 +1086,7 @@
       <c r="Q34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
@@ -1123,7 +1123,7 @@
       <c r="Q35" s="4"/>
       <c r="S35" s="4"/>
     </row>
-    <row r="36" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>58</v>
       </c>
@@ -1154,7 +1154,7 @@
       <c r="Q36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>25</v>
       </c>
@@ -1188,151 +1188,151 @@
       <c r="Q37" s="3"/>
       <c r="S37" s="3"/>
     </row>
-    <row r="39" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
     </row>
-    <row r="41" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
     </row>
-    <row r="46" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
     </row>
-    <row r="48" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="K48" s="2"/>
     </row>
-    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="1"/>
     </row>
-    <row r="53" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
     </row>
-    <row r="58" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
     </row>
-    <row r="61" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="M61" s="2"/>
     </row>
-    <row r="66" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
     </row>
-    <row r="68" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
     </row>
-    <row r="73" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="1"/>
     </row>
-    <row r="75" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
     </row>
-    <row r="82" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
     </row>
-    <row r="84" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
     </row>
-    <row r="86" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B86" s="2"/>
     </row>
-    <row r="91" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="1"/>
     </row>
-    <row r="93" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="J93" s="2"/>
     </row>
-    <row r="100" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
     </row>
-    <row r="102" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="2"/>
     </row>
-    <row r="107" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A107" s="1"/>
     </row>
-    <row r="109" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="J109" s="2"/>
     </row>
-    <row r="116" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A116" s="1"/>
       <c r="B116" s="1"/>
     </row>
-    <row r="118" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B118" s="2"/>
     </row>
-    <row r="123" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A123" s="1"/>
     </row>
-    <row r="125" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="J125" s="2"/>
     </row>
-    <row r="129" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
     </row>
-    <row r="131" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B131" s="2"/>
     </row>
-    <row r="136" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A136" s="1"/>
     </row>
-    <row r="138" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
     </row>
-    <row r="147" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A147" s="1"/>
       <c r="B147" s="1"/>
     </row>
-    <row r="154" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A154" s="1"/>
     </row>
-    <row r="160" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A160" s="1"/>
       <c r="B160" s="1"/>
     </row>
-    <row r="167" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A167" s="1"/>
     </row>
-    <row r="174" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A174" s="1"/>
       <c r="B174" s="1"/>
     </row>
-    <row r="176" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B176" s="2"/>
     </row>
-    <row r="181" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A181" s="1"/>
     </row>
-    <row r="183" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="J183" s="2"/>
     </row>
-    <row r="189" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A189" s="1"/>
       <c r="B189" s="1"/>
     </row>
-    <row r="196" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A196" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-27255" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="58">
   <si>
     <t>Activity</t>
   </si>
@@ -51,9 +51,6 @@
     <t>comment</t>
   </si>
   <si>
-    <t>Originally in cubic meter. Composition: 96% CH4, 4% CO2, Density of gas: .708 kg/Nm3</t>
-  </si>
-  <si>
     <t>Exchanges</t>
   </si>
   <si>
@@ -93,9 +90,6 @@
     <t>technosphere</t>
   </si>
   <si>
-    <t>carbon dioxide, captured from atmosphere</t>
-  </si>
-  <si>
     <t>production of nickle-based catalyst for methanation</t>
   </si>
   <si>
@@ -117,9 +111,6 @@
     <t>Hydrogen, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant</t>
   </si>
   <si>
-    <t>methane, from coal-based hydrogen, with carbon from atmospheric CO2 capture</t>
-  </si>
-  <si>
     <t>methane, from coal-based hydrogen</t>
   </si>
   <si>
@@ -196,6 +187,15 @@
   </si>
   <si>
     <t>hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, fossil</t>
+  </si>
+  <si>
+    <t>Originally in cubic meter. Composition: 96% CH4, 4% CO2, Density of gas: .708 kg/Nm3
+The coal gasification process provides the necessary CO2. Hence, the eneded amount of CO2
+is not released in the atmosphere as it ends up in the fuel instead.
+So, we correct that here.</t>
   </si>
 </sst>
 </file>
@@ -262,9 +262,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -579,40 +579,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S196"/>
+  <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="79.7109375" customWidth="1"/>
+    <col min="1" max="1" width="79.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>18</v>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -620,7 +620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -628,15 +628,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -644,7 +644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -652,34 +652,34 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>13</v>
-      </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F11" t="s">
         <v>5</v>
@@ -691,15 +691,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -708,21 +708,21 @@
         <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>1.02</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -731,200 +731,200 @@
         <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <f>(0.0028236*0.669)+0.208</f>
         <v>0.2098889884</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <f>0.061874*0.669</f>
         <v>4.1393706000000002E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <f>0.000000034944*0.669</f>
         <v>2.3377536E-8</v>
       </c>
       <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
         <v>36</v>
       </c>
-      <c r="D16" t="s">
+      <c r="F16" t="s">
         <v>39</v>
       </c>
-      <c r="F16" t="s">
-        <v>42</v>
-      </c>
       <c r="G16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="6">
+        <v>41</v>
+      </c>
+      <c r="B17" s="5">
         <v>8.4800000000000005E-8</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <f>(0.00000521*0.669)+0.000010376</f>
         <v>1.386149E-5</v>
       </c>
       <c r="C18" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <f>(0.000000000597*0.669)+0.000000004</f>
         <v>4.3993930000000006E-9</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <f>(0.00018*0.669)+0.00018</f>
         <v>3.0042000000000003E-4</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
       </c>
       <c r="G20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>52</v>
       </c>
       <c r="B21">
         <f>0.0000018*0.669</f>
         <v>1.2042E-6</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -932,15 +932,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -948,7 +948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -956,7 +956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -964,33 +964,33 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="B32" t="s">
         <v>12</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
       </c>
       <c r="C32" t="s">
         <v>7</v>
@@ -999,22 +999,22 @@
         <v>5</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" t="s">
         <v>3</v>
       </c>
       <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
         <v>15</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>16</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>17</v>
-      </c>
-      <c r="J32" t="s">
-        <v>18</v>
       </c>
       <c r="K32" t="s">
         <v>2</v>
@@ -1023,9 +1023,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1037,21 +1037,21 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
         <v>19</v>
       </c>
-      <c r="F33" t="s">
+      <c r="J33" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="J33" t="s">
-        <v>27</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="B34">
         <v>8.06180790960452E-6</v>
@@ -1063,10 +1063,10 @@
         <v>5</v>
       </c>
       <c r="E34" t="s">
+        <v>21</v>
+      </c>
+      <c r="F34" t="s">
         <v>22</v>
-      </c>
-      <c r="F34" t="s">
-        <v>23</v>
       </c>
       <c r="G34">
         <v>2</v>
@@ -1078,20 +1078,20 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K34" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Q34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>24</v>
+    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="B35">
-        <v>2.768361581920904</v>
+        <v>0.50779661016949151</v>
       </c>
       <c r="C35" t="s">
         <v>8</v>
@@ -1100,35 +1100,29 @@
         <v>6</v>
       </c>
       <c r="E35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F35" t="s">
         <v>22</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" s="3"/>
+      <c r="S35" s="3"/>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>23</v>
       </c>
-      <c r="G35">
-        <v>2</v>
-      </c>
-      <c r="H35">
-        <v>0.67294447324242579</v>
-      </c>
-      <c r="I35">
-        <v>0.20605482541341649</v>
-      </c>
-      <c r="J35" t="s">
-        <v>27</v>
-      </c>
-      <c r="K35" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q35" s="4"/>
-      <c r="S35" s="4"/>
-    </row>
-    <row r="36" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="B36">
-        <v>0.50779661016949151</v>
+        <v>1.7655367231638421E-4</v>
       </c>
       <c r="C36" t="s">
         <v>8</v>
@@ -1137,203 +1131,192 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
         <v>22</v>
       </c>
-      <c r="F36" t="s">
-        <v>23</v>
-      </c>
       <c r="G36">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="H36">
+        <v>-8.987196820661973</v>
+      </c>
+      <c r="I36">
+        <v>7.4210002559136581E-2</v>
       </c>
       <c r="J36" t="s">
-        <v>27</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>25</v>
+    <row r="37" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B37">
-        <v>1.7655367231638421E-4</v>
-      </c>
-      <c r="C37" t="s">
-        <v>8</v>
+        <v>-2.7679999999999998</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
       </c>
       <c r="E37" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37">
-        <v>2</v>
-      </c>
-      <c r="H37">
-        <v>-8.987196820661973</v>
-      </c>
-      <c r="I37">
-        <v>7.4210002559136581E-2</v>
+        <v>46</v>
       </c>
       <c r="J37" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q37" s="3"/>
-      <c r="S37" s="3"/>
-    </row>
-    <row r="39" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-    </row>
-    <row r="41" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="46" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="48" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="2"/>
-      <c r="K48" s="2"/>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="2"/>
-      <c r="M61" s="2"/>
-    </row>
-    <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-    </row>
-    <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
-    </row>
-    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="45" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="47" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="K47" s="2"/>
+    </row>
+    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+    </row>
+    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A57" s="1"/>
+    </row>
+    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="65" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1"/>
+    </row>
+    <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+    </row>
+    <row r="74" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A74" s="2"/>
+      <c r="J74" s="2"/>
+    </row>
+    <row r="75" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="J75" s="2"/>
-    </row>
-    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
     </row>
-    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="2"/>
-    </row>
-    <row r="82" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-    </row>
-    <row r="84" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="1"/>
-      <c r="B84" s="1"/>
-    </row>
-    <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B86" s="2"/>
-    </row>
-    <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="J93" s="2"/>
-    </row>
-    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="1"/>
-      <c r="B100" s="1"/>
-    </row>
-    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="2"/>
-    </row>
-    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="1"/>
-    </row>
-    <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="J109" s="2"/>
-    </row>
-    <row r="116" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A116" s="1"/>
-      <c r="B116" s="1"/>
-    </row>
-    <row r="118" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B118" s="2"/>
-    </row>
-    <row r="123" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="1"/>
-    </row>
-    <row r="125" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="2"/>
-      <c r="J125" s="2"/>
-    </row>
-    <row r="129" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A129" s="1"/>
-      <c r="B129" s="1"/>
-    </row>
-    <row r="131" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B131" s="2"/>
-    </row>
-    <row r="136" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="1"/>
-    </row>
-    <row r="138" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="2"/>
-    </row>
-    <row r="147" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="1"/>
-      <c r="B147" s="1"/>
-    </row>
-    <row r="154" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A154" s="1"/>
-    </row>
-    <row r="160" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A160" s="1"/>
-      <c r="B160" s="1"/>
-    </row>
-    <row r="167" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A167" s="1"/>
-    </row>
-    <row r="174" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="1"/>
-      <c r="B174" s="1"/>
-    </row>
-    <row r="176" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B176" s="2"/>
-    </row>
-    <row r="181" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="1"/>
-    </row>
-    <row r="183" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="2"/>
-      <c r="J183" s="2"/>
-    </row>
-    <row r="189" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="1"/>
-      <c r="B189" s="1"/>
-    </row>
-    <row r="196" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="1"/>
+    <row r="81" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2"/>
+    </row>
+    <row r="83" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+    </row>
+    <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B85" s="2"/>
+    </row>
+    <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+    </row>
+    <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A92" s="2"/>
+      <c r="J92" s="2"/>
+    </row>
+    <row r="99" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1"/>
+    </row>
+    <row r="101" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B101" s="2"/>
+    </row>
+    <row r="106" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+    </row>
+    <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A108" s="2"/>
+      <c r="J108" s="2"/>
+    </row>
+    <row r="115" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+    </row>
+    <row r="117" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B117" s="2"/>
+    </row>
+    <row r="122" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A122" s="1"/>
+    </row>
+    <row r="124" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A124" s="2"/>
+      <c r="J124" s="2"/>
+    </row>
+    <row r="128" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A128" s="1"/>
+      <c r="B128" s="1"/>
+    </row>
+    <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B130" s="2"/>
+    </row>
+    <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A135" s="1"/>
+    </row>
+    <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A137" s="2"/>
+    </row>
+    <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+    </row>
+    <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A153" s="1"/>
+    </row>
+    <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A159" s="1"/>
+      <c r="B159" s="1"/>
+    </row>
+    <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A166" s="1"/>
+    </row>
+    <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A173" s="1"/>
+      <c r="B173" s="1"/>
+    </row>
+    <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B175" s="2"/>
+    </row>
+    <row r="180" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A180" s="1"/>
+    </row>
+    <row r="182" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A182" s="2"/>
+      <c r="J182" s="2"/>
+    </row>
+    <row r="188" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A188" s="1"/>
+      <c r="B188" s="1"/>
+    </row>
+    <row r="195" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A195" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
@@ -1,25 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94E4936-D9E3-6145-9571-F01B5C704A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="35800" yWindow="2320" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
   <si>
     <t>Activity</t>
   </si>
@@ -106,9 +119,6 @@
   </si>
   <si>
     <t>syngas from coal</t>
-  </si>
-  <si>
-    <t>Hydrogen, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant</t>
   </si>
   <si>
     <t>methane, from coal-based hydrogen</t>
@@ -197,17 +207,27 @@
 is not released in the atmosphere as it ends up in the fuel instead.
 So, we correct that here.</t>
   </si>
+  <si>
+    <t>Hydrogen, gaseous, 30 bar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -257,14 +277,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,14 +599,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="79.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -593,7 +614,7 @@
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -601,18 +622,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -620,7 +641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -628,15 +649,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -644,7 +665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -652,20 +673,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -691,9 +712,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -711,12 +732,12 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>1.02</v>
@@ -734,90 +755,90 @@
         <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <f>(0.0028236*0.669)+0.208</f>
         <v>0.2098889884</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <f>0.061874*0.669</f>
         <v>4.1393706000000002E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <f>0.000000034944*0.669</f>
         <v>2.3377536E-8</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
         <v>22</v>
       </c>
       <c r="H16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>41</v>
       </c>
       <c r="B17" s="5">
         <v>8.4800000000000005E-8</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -829,102 +850,102 @@
         <v>22</v>
       </c>
       <c r="H17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>43</v>
       </c>
       <c r="B18">
         <f>(0.00000521*0.669)+0.000010376</f>
         <v>1.386149E-5</v>
       </c>
       <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
         <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>47</v>
       </c>
       <c r="B19">
         <f>(0.000000000597*0.669)+0.000000004</f>
         <v>4.3993930000000006E-9</v>
       </c>
       <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
         <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <f>(0.00018*0.669)+0.00018</f>
         <v>3.0042000000000003E-4</v>
       </c>
       <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
         <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>45</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <f>0.0000018*0.669</f>
         <v>1.2042E-6</v>
       </c>
       <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
         <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>45</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -932,15 +953,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -948,7 +969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -956,7 +977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -964,15 +985,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -980,12 +1001,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1023,9 +1044,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1046,10 +1067,10 @@
         <v>25</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
@@ -1086,9 +1107,9 @@
       <c r="Q34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35">
         <v>0.50779661016949151</v>
@@ -1111,13 +1132,13 @@
       <c r="J35" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>29</v>
+      <c r="K35" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -1148,12 +1169,15 @@
       <c r="J36" t="s">
         <v>25</v>
       </c>
+      <c r="K36" t="s">
+        <v>23</v>
+      </c>
       <c r="Q36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37">
         <v>-2.7679999999999998</v>
@@ -1162,160 +1186,160 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
         <v>45</v>
       </c>
-      <c r="F37" t="s">
-        <v>46</v>
-      </c>
       <c r="J37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
     </row>
-    <row r="45" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
     </row>
-    <row r="47" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
     </row>
-    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
     </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
     </row>
-    <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
     </row>
-    <row r="74" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
     </row>
-    <row r="81" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
     </row>
-    <row r="83" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
     </row>
-    <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
     </row>
-    <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="99" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="101" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
     </row>
-    <row r="106" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
     </row>
-    <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="115" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="117" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
     </row>
-    <row r="122" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
     </row>
-    <row r="124" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="128" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B130" s="2"/>
     </row>
-    <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
     </row>
-    <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
     </row>
-    <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
     </row>
-    <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
     </row>
-    <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
     </row>
-    <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
     </row>
-    <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
     </row>
-    <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B175" s="2"/>
     </row>
-    <row r="180" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
     </row>
-    <row r="182" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="188" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
     </row>
-    <row r="195" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
@@ -1,38 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94E4936-D9E3-6145-9571-F01B5C704A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35800" yWindow="2320" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="58">
   <si>
     <t>Activity</t>
   </si>
@@ -119,6 +106,9 @@
   </si>
   <si>
     <t>syngas from coal</t>
+  </si>
+  <si>
+    <t>Hydrogen, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant</t>
   </si>
   <si>
     <t>methane, from coal-based hydrogen</t>
@@ -207,27 +197,17 @@
 is not released in the atmosphere as it ends up in the fuel instead.
 So, we correct that here.</t>
   </si>
-  <si>
-    <t>Hydrogen, gaseous, 30 bar</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -277,15 +257,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,14 +578,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="79.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -614,7 +593,7 @@
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -622,18 +601,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -641,7 +620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -649,15 +628,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -665,7 +644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -673,20 +652,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -712,9 +691,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -732,12 +711,12 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>29</v>
       </c>
       <c r="B13">
         <v>1.02</v>
@@ -755,90 +734,90 @@
         <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <f>(0.0028236*0.669)+0.208</f>
         <v>0.2098889884</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <f>0.061874*0.669</f>
         <v>4.1393706000000002E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <f>0.000000034944*0.669</f>
         <v>2.3377536E-8</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
         <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="5">
         <v>8.4800000000000005E-8</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -850,102 +829,102 @@
         <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <f>(0.00000521*0.669)+0.000010376</f>
         <v>1.386149E-5</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <f>(0.000000000597*0.669)+0.000000004</f>
         <v>4.3993930000000006E-9</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <f>(0.00018*0.669)+0.00018</f>
         <v>3.0042000000000003E-4</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <f>0.0000018*0.669</f>
         <v>1.2042E-6</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -953,15 +932,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -969,7 +948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -977,7 +956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -985,15 +964,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1001,12 +980,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1044,9 +1023,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1067,10 +1046,10 @@
         <v>25</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
@@ -1107,9 +1086,9 @@
       <c r="Q34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>0.50779661016949151</v>
@@ -1132,13 +1111,13 @@
       <c r="J35" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>57</v>
+      <c r="K35" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -1169,15 +1148,12 @@
       <c r="J36" t="s">
         <v>25</v>
       </c>
-      <c r="K36" t="s">
-        <v>23</v>
-      </c>
       <c r="Q36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B37">
         <v>-2.7679999999999998</v>
@@ -1186,160 +1162,160 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" t="s">
         <v>44</v>
       </c>
-      <c r="F37" t="s">
-        <v>45</v>
-      </c>
-      <c r="J37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="40" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
     </row>
-    <row r="45" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
     </row>
-    <row r="47" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
     </row>
-    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
     </row>
-    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
     </row>
-    <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
     </row>
-    <row r="74" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
     </row>
-    <row r="81" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
     </row>
-    <row r="83" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="85" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B85" s="2"/>
     </row>
-    <row r="90" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
     </row>
-    <row r="92" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="99" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="101" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B101" s="2"/>
     </row>
-    <row r="106" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
     </row>
-    <row r="108" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="115" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="117" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B117" s="2"/>
     </row>
-    <row r="122" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
     </row>
-    <row r="124" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="128" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B130" s="2"/>
     </row>
-    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
     </row>
-    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
     </row>
-    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
     </row>
-    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
     </row>
-    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
     </row>
-    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
     </row>
-    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
     </row>
-    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B175" s="2"/>
     </row>
-    <row r="180" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
     </row>
-    <row r="182" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="188" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
     </row>
-    <row r="195" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789CE739-8259-F743-93A4-A9DF3E76C5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -108,9 +121,6 @@
     <t>syngas from coal</t>
   </si>
   <si>
-    <t>Hydrogen, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant</t>
-  </si>
-  <si>
     <t>methane, from coal-based hydrogen</t>
   </si>
   <si>
@@ -197,17 +207,27 @@
 is not released in the atmosphere as it ends up in the fuel instead.
 So, we correct that here.</t>
   </si>
+  <si>
+    <t>Hydrogen, gaseous, 30 bar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -257,14 +277,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,14 +599,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="79.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -593,7 +614,7 @@
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -601,18 +622,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -620,7 +641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -628,15 +649,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -644,7 +665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -652,20 +673,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -691,9 +712,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -711,12 +732,12 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>1.02</v>
@@ -734,90 +755,90 @@
         <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <f>(0.0028236*0.669)+0.208</f>
         <v>0.2098889884</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <f>0.061874*0.669</f>
         <v>4.1393706000000002E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <f>0.000000034944*0.669</f>
         <v>2.3377536E-8</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
         <v>22</v>
       </c>
       <c r="H16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>41</v>
       </c>
       <c r="B17" s="5">
         <v>8.4800000000000005E-8</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -829,102 +850,102 @@
         <v>22</v>
       </c>
       <c r="H17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>43</v>
       </c>
       <c r="B18">
         <f>(0.00000521*0.669)+0.000010376</f>
         <v>1.386149E-5</v>
       </c>
       <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
         <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>47</v>
       </c>
       <c r="B19">
         <f>(0.000000000597*0.669)+0.000000004</f>
         <v>4.3993930000000006E-9</v>
       </c>
       <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
         <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <f>(0.00018*0.669)+0.00018</f>
         <v>3.0042000000000003E-4</v>
       </c>
       <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
         <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>45</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <f>0.0000018*0.669</f>
         <v>1.2042E-6</v>
       </c>
       <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
         <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>45</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -932,15 +953,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -948,7 +969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -956,7 +977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -964,15 +985,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -980,12 +1001,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1023,9 +1044,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1046,10 +1067,10 @@
         <v>25</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
@@ -1086,9 +1107,9 @@
       <c r="Q34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35">
         <v>0.50779661016949151</v>
@@ -1111,13 +1132,13 @@
       <c r="J35" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>29</v>
+      <c r="K35" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -1151,9 +1172,9 @@
       <c r="Q36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37">
         <v>-2.7679999999999998</v>
@@ -1162,160 +1183,160 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
         <v>45</v>
       </c>
-      <c r="F37" t="s">
-        <v>46</v>
-      </c>
       <c r="J37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
     </row>
-    <row r="45" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
     </row>
-    <row r="47" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
     </row>
-    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
     </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
     </row>
-    <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
     </row>
-    <row r="74" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
     </row>
-    <row r="81" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
     </row>
-    <row r="83" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
     </row>
-    <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
     </row>
-    <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="99" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="101" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
     </row>
-    <row r="106" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
     </row>
-    <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="115" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="117" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
     </row>
-    <row r="122" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
     </row>
-    <row r="124" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="128" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B130" s="2"/>
     </row>
-    <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
     </row>
-    <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
     </row>
-    <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
     </row>
-    <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
     </row>
-    <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
     </row>
-    <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
     </row>
-    <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
     </row>
-    <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B175" s="2"/>
     </row>
-    <row r="180" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
     </row>
-    <row r="182" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="188" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
     </row>
-    <row r="195" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789CE739-8259-F743-93A4-A9DF3E76C5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD0252A-57DF-DD46-9365-FC7C7C17E2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -187,12 +187,6 @@
     <t>market group for electricity, medium voltage</t>
   </si>
   <si>
-    <t>heat, central or small-scale, other than natural gas</t>
-  </si>
-  <si>
-    <t>heat and power co-generation, biogas, gas engine</t>
-  </si>
-  <si>
     <t>CH</t>
   </si>
   <si>
@@ -209,6 +203,12 @@
   </si>
   <si>
     <t>Hydrogen, gaseous, 30 bar</t>
+  </si>
+  <si>
+    <t>market for heat, central or small-scale, biomethane</t>
+  </si>
+  <si>
+    <t>heat, central or small-scale, biomethane</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
   <dimension ref="A1:S195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -784,7 +784,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <f>0.061874*0.669</f>
@@ -794,7 +794,7 @@
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
         <v>36</v>
@@ -803,7 +803,7 @@
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -990,7 +990,7 @@
         <v>9</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1109,7 +1109,7 @@
     </row>
     <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B35">
         <v>0.50779661016949151</v>
@@ -1133,7 +1133,7 @@
         <v>25</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="S35" s="3"/>
@@ -1174,7 +1174,7 @@
     </row>
     <row r="37" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>-2.7679999999999998</v>

--- a/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
@@ -1,20 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD0252A-57DF-DD46-9365-FC7C7C17E2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -108,9 +121,6 @@
     <t>syngas from coal</t>
   </si>
   <si>
-    <t>Hydrogen, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant</t>
-  </si>
-  <si>
     <t>methane, from coal-based hydrogen</t>
   </si>
   <si>
@@ -175,12 +185,6 @@
   </si>
   <si>
     <t>market group for electricity, medium voltage</t>
-  </si>
-  <si>
-    <t>heat, central or small-scale, other than natural gas</t>
-  </si>
-  <si>
-    <t>heat and power co-generation, biogas, gas engine</t>
   </si>
   <si>
     <t>CH</t>
@@ -197,17 +201,33 @@
 is not released in the atmosphere as it ends up in the fuel instead.
 So, we correct that here.</t>
   </si>
+  <si>
+    <t>Hydrogen, gaseous, 30 bar</t>
+  </si>
+  <si>
+    <t>market for heat, central or small-scale, biomethane</t>
+  </si>
+  <si>
+    <t>heat, central or small-scale, biomethane</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -257,14 +277,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,14 +599,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="79.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -593,7 +614,7 @@
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -601,18 +622,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -620,7 +641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -628,15 +649,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -644,7 +665,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -652,20 +673,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -691,9 +712,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -711,12 +732,12 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>1.02</v>
@@ -734,90 +755,90 @@
         <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <f>(0.0028236*0.669)+0.208</f>
         <v>0.2098889884</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B15">
         <f>0.061874*0.669</f>
         <v>4.1393706000000002E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <f>0.000000034944*0.669</f>
         <v>2.3377536E-8</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
         <v>22</v>
       </c>
       <c r="H16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>41</v>
       </c>
       <c r="B17" s="5">
         <v>8.4800000000000005E-8</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -829,102 +850,102 @@
         <v>22</v>
       </c>
       <c r="H17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>43</v>
       </c>
       <c r="B18">
         <f>(0.00000521*0.669)+0.000010376</f>
         <v>1.386149E-5</v>
       </c>
       <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
         <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>47</v>
       </c>
       <c r="B19">
         <f>(0.000000000597*0.669)+0.000000004</f>
         <v>4.3993930000000006E-9</v>
       </c>
       <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
         <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <f>(0.00018*0.669)+0.00018</f>
         <v>3.0042000000000003E-4</v>
       </c>
       <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
         <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>45</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <f>0.0000018*0.669</f>
         <v>1.2042E-6</v>
       </c>
       <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
         <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>45</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -932,15 +953,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -948,7 +969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -956,7 +977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -964,15 +985,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -980,12 +1001,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1023,9 +1044,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1046,10 +1067,10 @@
         <v>25</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
@@ -1086,9 +1107,9 @@
       <c r="Q34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B35">
         <v>0.50779661016949151</v>
@@ -1111,13 +1132,13 @@
       <c r="J35" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>29</v>
+      <c r="K35" s="7" t="s">
+        <v>55</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -1151,9 +1172,9 @@
       <c r="Q36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>-2.7679999999999998</v>
@@ -1162,160 +1183,160 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
         <v>45</v>
       </c>
-      <c r="F37" t="s">
-        <v>46</v>
-      </c>
       <c r="J37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
     </row>
-    <row r="45" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
     </row>
-    <row r="47" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
     </row>
-    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
     </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
     </row>
-    <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
     </row>
-    <row r="74" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
     </row>
-    <row r="81" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
     </row>
-    <row r="83" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
     </row>
-    <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
     </row>
-    <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="99" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="101" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
     </row>
-    <row r="106" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
     </row>
-    <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="115" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="117" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
     </row>
-    <row r="122" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
     </row>
-    <row r="124" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="128" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B130" s="2"/>
     </row>
-    <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
     </row>
-    <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
     </row>
-    <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
     </row>
-    <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
     </row>
-    <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
     </row>
-    <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
     </row>
-    <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
     </row>
-    <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B175" s="2"/>
     </row>
-    <row r="180" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
     </row>
-    <row r="182" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="188" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
     </row>
-    <row r="195" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
@@ -1,33 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10507"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FD0252A-57DF-DD46-9365-FC7C7C17E2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -121,6 +108,9 @@
     <t>syngas from coal</t>
   </si>
   <si>
+    <t>Hydrogen, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant</t>
+  </si>
+  <si>
     <t>methane, from coal-based hydrogen</t>
   </si>
   <si>
@@ -185,6 +175,12 @@
   </si>
   <si>
     <t>market group for electricity, medium voltage</t>
+  </si>
+  <si>
+    <t>heat, central or small-scale, other than natural gas</t>
+  </si>
+  <si>
+    <t>heat and power co-generation, biogas, gas engine</t>
   </si>
   <si>
     <t>CH</t>
@@ -201,33 +197,17 @@
 is not released in the atmosphere as it ends up in the fuel instead.
 So, we correct that here.</t>
   </si>
-  <si>
-    <t>Hydrogen, gaseous, 30 bar</t>
-  </si>
-  <si>
-    <t>market for heat, central or small-scale, biomethane</t>
-  </si>
-  <si>
-    <t>heat, central or small-scale, biomethane</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -277,15 +257,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,14 +578,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="79.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -614,7 +593,7 @@
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -622,18 +601,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -641,7 +620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -649,15 +628,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -665,7 +644,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -673,20 +652,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -712,9 +691,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -732,12 +711,12 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>29</v>
       </c>
       <c r="B13">
         <v>1.02</v>
@@ -755,90 +734,90 @@
         <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B14">
         <f>(0.0028236*0.669)+0.208</f>
         <v>0.2098889884</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B15">
         <f>0.061874*0.669</f>
         <v>4.1393706000000002E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" t="s">
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <f>0.000000034944*0.669</f>
         <v>2.3377536E-8</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G16" t="s">
         <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="5">
         <v>8.4800000000000005E-8</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -850,102 +829,102 @@
         <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <f>(0.00000521*0.669)+0.000010376</f>
         <v>1.386149E-5</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B19">
         <f>(0.000000000597*0.669)+0.000000004</f>
         <v>4.3993930000000006E-9</v>
       </c>
       <c r="C19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B20">
         <f>(0.00018*0.669)+0.00018</f>
         <v>3.0042000000000003E-4</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B21">
         <f>0.0000018*0.669</f>
         <v>1.2042E-6</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -953,15 +932,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -969,7 +948,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -977,7 +956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -985,15 +964,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -1001,12 +980,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1044,9 +1023,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1067,10 +1046,10 @@
         <v>25</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
@@ -1107,9 +1086,9 @@
       <c r="Q34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B35">
         <v>0.50779661016949151</v>
@@ -1132,13 +1111,13 @@
       <c r="J35" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="7" t="s">
-        <v>55</v>
+      <c r="K35" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -1172,9 +1151,9 @@
       <c r="Q36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B37">
         <v>-2.7679999999999998</v>
@@ -1183,160 +1162,160 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" t="s">
         <v>44</v>
       </c>
-      <c r="F37" t="s">
-        <v>45</v>
-      </c>
-      <c r="J37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="40" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
     </row>
-    <row r="45" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
     </row>
-    <row r="47" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
     </row>
-    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="1"/>
     </row>
-    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
     </row>
-    <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A72" s="1"/>
     </row>
-    <row r="74" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A78" s="2"/>
     </row>
-    <row r="81" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="2"/>
     </row>
-    <row r="83" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="85" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B85" s="2"/>
     </row>
-    <row r="90" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A90" s="1"/>
     </row>
-    <row r="92" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="99" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="101" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B101" s="2"/>
     </row>
-    <row r="106" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
     </row>
-    <row r="108" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="115" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="117" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B117" s="2"/>
     </row>
-    <row r="122" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A122" s="1"/>
     </row>
-    <row r="124" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="128" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B130" s="2"/>
     </row>
-    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A135" s="1"/>
     </row>
-    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="2"/>
     </row>
-    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
     </row>
-    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="1"/>
     </row>
-    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
     </row>
-    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A166" s="1"/>
     </row>
-    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
     </row>
-    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B175" s="2"/>
     </row>
-    <row r="180" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A180" s="1"/>
     </row>
-    <row r="182" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A182" s="2"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="188" spans="1:10" ht="16" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
     </row>
-    <row r="195" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A195" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
@@ -1,20 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise\premise\data\additional_inventories\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C409FB61-8B55-8B47-8155-5E1C084302D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27252" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-29040" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -108,9 +122,6 @@
     <t>syngas from coal</t>
   </si>
   <si>
-    <t>Hydrogen, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant</t>
-  </si>
-  <si>
     <t>methane, from coal-based hydrogen</t>
   </si>
   <si>
@@ -197,17 +208,27 @@
 is not released in the atmosphere as it ends up in the fuel instead.
 So, we correct that here.</t>
   </si>
+  <si>
+    <t>Hydrogen, gaseous, 30 bar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -257,14 +278,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,14 +600,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S195"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="79.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
@@ -593,7 +615,7 @@
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -601,18 +623,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -620,7 +642,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -628,15 +650,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>3</v>
       </c>
@@ -644,7 +666,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -652,20 +674,20 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -691,9 +713,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -711,12 +733,12 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B13">
         <v>1.02</v>
@@ -734,90 +756,90 @@
         <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B14">
         <f>(0.0028236*0.669)+0.208</f>
         <v>0.2098889884</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15">
         <f>0.061874*0.669</f>
         <v>4.1393706000000002E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B16">
         <f>0.000000034944*0.669</f>
         <v>2.3377536E-8</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
         <v>22</v>
       </c>
       <c r="H16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>41</v>
       </c>
       <c r="B17" s="5">
         <v>8.4800000000000005E-8</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>24</v>
@@ -829,102 +851,102 @@
         <v>22</v>
       </c>
       <c r="H17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>43</v>
       </c>
       <c r="B18">
         <f>(0.00000521*0.669)+0.000010376</f>
         <v>1.386149E-5</v>
       </c>
       <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" t="s">
         <v>44</v>
-      </c>
-      <c r="E18" t="s">
-        <v>45</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>47</v>
       </c>
       <c r="B19">
         <f>(0.000000000597*0.669)+0.000000004</f>
         <v>4.3993930000000006E-9</v>
       </c>
       <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" t="s">
         <v>44</v>
-      </c>
-      <c r="E19" t="s">
-        <v>45</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B20">
         <f>(0.00018*0.669)+0.00018</f>
         <v>3.0042000000000003E-4</v>
       </c>
       <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
         <v>44</v>
-      </c>
-      <c r="E20" t="s">
-        <v>45</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B21">
         <f>0.0000018*0.669</f>
         <v>1.2042E-6</v>
       </c>
       <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
         <v>44</v>
-      </c>
-      <c r="E21" t="s">
-        <v>45</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>1</v>
       </c>
@@ -932,15 +954,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -948,7 +970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -956,7 +978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>7</v>
       </c>
@@ -964,15 +986,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>26</v>
       </c>
@@ -980,12 +1002,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>11</v>
       </c>
@@ -1023,9 +1045,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1046,10 +1068,10 @@
         <v>25</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>20</v>
       </c>
@@ -1086,9 +1108,9 @@
       <c r="Q34" s="3"/>
       <c r="S34" s="3"/>
     </row>
-    <row r="35" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B35">
         <v>0.50779661016949151</v>
@@ -1111,13 +1133,13 @@
       <c r="J35" t="s">
         <v>25</v>
       </c>
-      <c r="K35" s="2" t="s">
-        <v>29</v>
+      <c r="K35" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>23</v>
       </c>
@@ -1151,9 +1173,9 @@
       <c r="Q36" s="3"/>
       <c r="S36" s="3"/>
     </row>
-    <row r="37" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37">
         <v>-2.7679999999999998</v>
@@ -1162,160 +1184,160 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
         <v>45</v>
       </c>
-      <c r="F37" t="s">
-        <v>46</v>
-      </c>
       <c r="J37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
     </row>
-    <row r="40" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="B40" s="2"/>
     </row>
-    <row r="45" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="1"/>
     </row>
-    <row r="47" spans="1:19" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="K47" s="2"/>
     </row>
-    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="1"/>
       <c r="B50" s="1"/>
     </row>
-    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="2"/>
     </row>
-    <row r="57" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="1"/>
     </row>
-    <row r="60" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="M60" s="2"/>
     </row>
-    <row r="65" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
     </row>
-    <row r="67" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B67" s="2"/>
     </row>
-    <row r="72" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="1"/>
     </row>
-    <row r="74" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="J74" s="2"/>
     </row>
-    <row r="75" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
     </row>
-    <row r="76" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
     </row>
-    <row r="77" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
     </row>
-    <row r="78" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
     </row>
-    <row r="81" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
     </row>
-    <row r="83" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="85" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B85" s="2"/>
     </row>
-    <row r="90" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="1"/>
     </row>
-    <row r="92" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="J92" s="2"/>
     </row>
-    <row r="99" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
     </row>
-    <row r="101" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B101" s="2"/>
     </row>
-    <row r="106" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="1"/>
     </row>
-    <row r="108" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="115" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="1"/>
       <c r="B115" s="1"/>
     </row>
-    <row r="117" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="B117" s="2"/>
     </row>
-    <row r="122" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="1"/>
     </row>
-    <row r="124" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="2"/>
       <c r="J124" s="2"/>
     </row>
-    <row r="128" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
     </row>
-    <row r="130" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B130" s="2"/>
     </row>
-    <row r="135" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="1"/>
     </row>
-    <row r="137" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="2"/>
     </row>
-    <row r="146" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="1"/>
       <c r="B146" s="1"/>
     </row>
-    <row r="153" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="1"/>
     </row>
-    <row r="159" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="1"/>
       <c r="B159" s="1"/>
     </row>
-    <row r="166" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="1"/>
     </row>
-    <row r="173" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="1"/>
       <c r="B173" s="1"/>
     </row>
-    <row r="175" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="B175" s="2"/>
     </row>
-    <row r="180" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="1"/>
     </row>
-    <row r="182" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="2"/>
       <c r="J182" s="2"/>
     </row>
-    <row r="188" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:10" ht="16" x14ac:dyDescent="0.2">
       <c r="A188" s="1"/>
       <c r="B188" s="1"/>
     </row>
-    <row r="195" spans="1:1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A195" s="1"/>
     </row>
   </sheetData>

--- a/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C409FB61-8B55-8B47-8155-5E1C084302D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650BCF7D-3E6B-A749-8F1B-99877846B807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29040" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35940" yWindow="680" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="60">
   <si>
     <t>Activity</t>
   </si>
@@ -102,9 +102,6 @@
   </si>
   <si>
     <t>technosphere</t>
-  </si>
-  <si>
-    <t>production of nickle-based catalyst for methanation</t>
   </si>
   <si>
     <t>GLO</t>
@@ -209,7 +206,16 @@
 So, we correct that here.</t>
   </si>
   <si>
-    <t>Hydrogen, gaseous, 30 bar</t>
+    <t>Sabatier reaction methanation unit construction</t>
+  </si>
+  <si>
+    <t>production of nickel-based catalyst for methanation</t>
+  </si>
+  <si>
+    <t>nickel-based catalyst for methanation</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, 30 bar</t>
   </si>
 </sst>
 </file>
@@ -219,7 +225,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +263,10 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -285,7 +295,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -603,7 +613,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
@@ -620,7 +630,7 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -631,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -655,7 +665,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -679,7 +689,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="16" x14ac:dyDescent="0.2">
@@ -715,13 +725,13 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12">
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -733,18 +743,18 @@
         <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>1.02</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>8</v>
@@ -756,93 +766,93 @@
         <v>22</v>
       </c>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B14">
         <f>(0.0028236*0.669)+0.208</f>
         <v>0.2098889884</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>22</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B15">
         <f>0.061874*0.669</f>
         <v>4.1393706000000002E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
         <v>22</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B16">
         <f>0.000000034944*0.669</f>
         <v>2.3377536E-8</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G16" t="s">
         <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B17" s="5">
         <v>8.4800000000000005E-8</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
         <v>5</v>
@@ -851,91 +861,91 @@
         <v>22</v>
       </c>
       <c r="H17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18">
         <f>(0.00000521*0.669)+0.000010376</f>
         <v>1.386149E-5</v>
       </c>
       <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
         <v>43</v>
-      </c>
-      <c r="E18" t="s">
-        <v>44</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B19">
         <f>(0.000000000597*0.669)+0.000000004</f>
         <v>4.3993930000000006E-9</v>
       </c>
       <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
         <v>43</v>
-      </c>
-      <c r="E19" t="s">
-        <v>44</v>
       </c>
       <c r="F19" t="s">
         <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20">
         <f>(0.00018*0.669)+0.00018</f>
         <v>3.0042000000000003E-4</v>
       </c>
       <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
         <v>43</v>
-      </c>
-      <c r="E20" t="s">
-        <v>44</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B21">
         <f>0.0000018*0.669</f>
         <v>1.2042E-6</v>
       </c>
       <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
         <v>43</v>
-      </c>
-      <c r="E21" t="s">
-        <v>44</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -943,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -959,7 +969,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -990,16 +1000,16 @@
       <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>56</v>
+      <c r="B29" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
         <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
@@ -1047,7 +1057,7 @@
     </row>
     <row r="33" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -1065,15 +1075,15 @@
         <v>19</v>
       </c>
       <c r="J33" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K33" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>20</v>
+      <c r="A34" s="6" t="s">
+        <v>56</v>
       </c>
       <c r="B34">
         <v>8.06180790960452E-6</v>
@@ -1100,9 +1110,9 @@
         <v>0.41862376226685111</v>
       </c>
       <c r="J34" t="s">
-        <v>25</v>
-      </c>
-      <c r="K34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K34" s="6" t="s">
         <v>20</v>
       </c>
       <c r="Q34" s="3"/>
@@ -1110,7 +1120,7 @@
     </row>
     <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35">
         <v>0.50779661016949151</v>
@@ -1131,17 +1141,17 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Q35" s="3"/>
       <c r="S35" s="3"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>23</v>
+    <row r="36" spans="1:19" ht="16" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="B36">
         <v>1.7655367231638421E-4</v>
@@ -1168,14 +1178,17 @@
         <v>7.4210002559136581E-2</v>
       </c>
       <c r="J36" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="K36" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="S36" s="3"/>
     </row>
     <row r="37" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B37">
         <v>-2.7679999999999998</v>
@@ -1184,13 +1197,13 @@
         <v>6</v>
       </c>
       <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
         <v>44</v>
       </c>
-      <c r="F37" t="s">
-        <v>45</v>
-      </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:19" ht="16" x14ac:dyDescent="0.2">

--- a/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
+++ b/premise/data/additional_inventories/lci-syngas-from-coal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650BCF7D-3E6B-A749-8F1B-99877846B807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7695D1F5-2D25-5C46-B34E-FF33D5104CC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35940" yWindow="680" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Syngas" sheetId="1" r:id="rId1"/>
@@ -194,9 +194,6 @@
     <t>CH</t>
   </si>
   <si>
-    <t>hydrogen production, gaseous, 30 bar, from hard coal gasification and reforming, at coal gasification plant</t>
-  </si>
-  <si>
     <t>Carbon dioxide, fossil</t>
   </si>
   <si>
@@ -215,7 +212,10 @@
     <t>nickel-based catalyst for methanation</t>
   </si>
   <si>
-    <t>hydrogen, gaseous, 30 bar</t>
+    <t>hydrogen production, coal gasification</t>
+  </si>
+  <si>
+    <t>hydrogen, gaseous, low pressure</t>
   </si>
 </sst>
 </file>
@@ -315,9 +315,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -355,7 +355,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -461,7 +461,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -603,7 +603,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -614,12 +614,12 @@
   <dimension ref="A1:S195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="79.6640625" customWidth="1"/>
+    <col min="1" max="1" width="49.6640625" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
@@ -1001,7 +1001,7 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -1083,7 +1083,7 @@
     </row>
     <row r="34" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B34">
         <v>8.06180790960452E-6</v>
@@ -1119,14 +1119,14 @@
       <c r="S34" s="3"/>
     </row>
     <row r="35" spans="1:19" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>53</v>
+      <c r="A35" s="7" t="s">
+        <v>58</v>
       </c>
       <c r="B35">
         <v>0.50779661016949151</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="36" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B36">
         <v>1.7655367231638421E-4</v>
@@ -1181,14 +1181,14 @@
         <v>24</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q36" s="3"/>
       <c r="S36" s="3"/>
     </row>
     <row r="37" spans="1:19" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B37">
         <v>-2.7679999999999998</v>
